--- a/assets/excel/2021_6-2-2.xlsx
+++ b/assets/excel/2021_6-2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E7AE0E-CD10-4ADB-B2B8-D9ADE1D46C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53201AEE-023E-4D62-BF84-14F5CEF17CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{FA376DC0-5542-4490-8D9C-CE3D5F3816E5}"/>
   </bookViews>
@@ -374,9 +374,6 @@
     <t xml:space="preserve">Niedersachsen                 </t>
   </si>
   <si>
-    <t>1) SGB II + XII. SGB II: ALG II und Sozialgeld. Von der Bundesagentur für Arbeit wurde Mitte 2011 die SGB-II-Statistik revidiert, und zwar rückwirkend ab 2007. Es kann daher zu geringfügigen Abweichungen zu Veröffentlichungen der BA kommen. SGB XII: Hilfe zum Lebensunterhalt außerhalb von Einrichtungen (HLU, nach Wohnort); Grundsicherung im Alter und bei Erwerbsminderung nach dem SGB XII nach Wohnort der Bedarfsgemeinschaft, in- und außerhalb von Einrichtungen; Regelleistungen nach dem Asylbewerberleistungsgesetz (örtliche Träger, nach Wohnort); ohne Kriegsopferfürsorge.</t>
-  </si>
-  <si>
     <t>Quellen: Leistungen nach SGB II: Statistik der Bundesagentur für Arbeit, alle weiteren Daten: Statistische Ämter des Bundes und der Länder. Eigene Berechnung LSN.</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
+  </si>
+  <si>
+    <t>1) Leistungen nach SGB II (Arbeitslosengeld II und Sozialgeld) und SGB XII (Hilfe zum Lebensunterhalt außerhalb von Einrichtungen und Grundsicherung im Alter und bei Erwerbsminderung in und außerhalb von Einrichtungen, nach Wohnort) sowie Regelleistungen nach dem Asylbewerberleistungsgesetz (örtliche Träger nach Wohnort; Nicht enthalten sind Personen, die Leistungen der Landesaufnahmebehörde erhalten und regional nicht zugeordnet werden können).</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1272,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:O332"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A310" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325:J325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10555,9 +10555,9 @@
     <row r="324" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="29"/>
     </row>
-    <row r="325" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="35"/>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="327" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D327" s="32"/>
       <c r="E327" s="32"/>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="329" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D329" s="31"/>
       <c r="E329" s="31"/>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="330" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D330" s="31"/>
       <c r="E330" s="31"/>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="331" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D331" s="31"/>
       <c r="E331" s="31"/>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="332" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D332" s="31"/>
       <c r="E332" s="31"/>

--- a/assets/excel/2021_6-2-2.xlsx
+++ b/assets/excel/2021_6-2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53201AEE-023E-4D62-BF84-14F5CEF17CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E7AE0E-CD10-4ADB-B2B8-D9ADE1D46C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{FA376DC0-5542-4490-8D9C-CE3D5F3816E5}"/>
   </bookViews>
@@ -374,6 +374,9 @@
     <t xml:space="preserve">Niedersachsen                 </t>
   </si>
   <si>
+    <t>1) SGB II + XII. SGB II: ALG II und Sozialgeld. Von der Bundesagentur für Arbeit wurde Mitte 2011 die SGB-II-Statistik revidiert, und zwar rückwirkend ab 2007. Es kann daher zu geringfügigen Abweichungen zu Veröffentlichungen der BA kommen. SGB XII: Hilfe zum Lebensunterhalt außerhalb von Einrichtungen (HLU, nach Wohnort); Grundsicherung im Alter und bei Erwerbsminderung nach dem SGB XII nach Wohnort der Bedarfsgemeinschaft, in- und außerhalb von Einrichtungen; Regelleistungen nach dem Asylbewerberleistungsgesetz (örtliche Träger, nach Wohnort); ohne Kriegsopferfürsorge.</t>
+  </si>
+  <si>
     <t>Quellen: Leistungen nach SGB II: Statistik der Bundesagentur für Arbeit, alle weiteren Daten: Statistische Ämter des Bundes und der Länder. Eigene Berechnung LSN.</t>
   </si>
   <si>
@@ -387,9 +390,6 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
-  </si>
-  <si>
-    <t>1) Leistungen nach SGB II (Arbeitslosengeld II und Sozialgeld) und SGB XII (Hilfe zum Lebensunterhalt außerhalb von Einrichtungen und Grundsicherung im Alter und bei Erwerbsminderung in und außerhalb von Einrichtungen, nach Wohnort) sowie Regelleistungen nach dem Asylbewerberleistungsgesetz (örtliche Träger nach Wohnort; Nicht enthalten sind Personen, die Leistungen der Landesaufnahmebehörde erhalten und regional nicht zugeordnet werden können).</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1272,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:O332"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A310" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325:J325"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10555,9 +10555,9 @@
     <row r="324" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="29"/>
     </row>
-    <row r="325" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C325" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D325" s="35"/>
       <c r="E325" s="35"/>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="327" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D327" s="32"/>
       <c r="E327" s="32"/>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="329" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D329" s="31"/>
       <c r="E329" s="31"/>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="330" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C330" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D330" s="31"/>
       <c r="E330" s="31"/>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="331" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D331" s="31"/>
       <c r="E331" s="31"/>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="332" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C332" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D332" s="31"/>
       <c r="E332" s="31"/>
